--- a/timesheets/Submission2.xlsx
+++ b/timesheets/Submission2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lee/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lee/Documents/team-project/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E1C1F41-D0DA-9F4A-837E-779527DF2DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35ED4F5-3FE5-C04D-9EFE-CFD94AE32FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="500" windowWidth="28480" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Team member name:</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>lxa212</t>
+  </si>
+  <si>
+    <t>Tech Report</t>
+  </si>
+  <si>
+    <t>UML Diagram</t>
+  </si>
+  <si>
+    <t>Kanban Cards</t>
+  </si>
+  <si>
+    <t>Ethan Breen</t>
   </si>
 </sst>
 </file>
@@ -143,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -223,11 +235,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -242,84 +306,105 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,8 +726,8 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -654,7 +739,7 @@
     <col min="5" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="38" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -666,69 +751,77 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="31"/>
+      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="31"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="37"/>
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="32"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="37"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="33"/>
+      <c r="I4" s="21">
+        <v>45336</v>
+      </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="D5" s="46">
+        <v>45349</v>
+      </c>
+      <c r="E5" s="47"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="22">
+        <v>45349</v>
+      </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -740,134 +833,162 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="31"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28">
+      <c r="B8" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="12">
+        <v>45341</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I8" s="15">
         <f>(H8-G8)*24</f>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28">
+      <c r="B9" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="12">
+        <v>45343</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="I9" s="15">
         <f>(H9-G9)*24</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28">
-        <f t="shared" ref="I10:I14" si="0">(H10-G10)*24</f>
-        <v>0</v>
+      <c r="B10" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="12">
+        <v>45345</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" ref="I10:I11" si="0">(H10-G10)*24</f>
+        <v>3</v>
       </c>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28">
+      <c r="B11" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="26">
+        <v>45346</v>
+      </c>
+      <c r="G11" s="27">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H11" s="28">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I11" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0000000000000018</v>
       </c>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="16">
+        <f ca="1">SUM(I8:I14)</f>
+        <v>7.5000000000000027</v>
       </c>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -879,7 +1000,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="34"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -890,25 +1011,18 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="30">
-        <f>SUM(I8:I14)</f>
-        <v>0</v>
-      </c>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="4"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="5"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="35"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -919,8 +1033,8 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="36"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -932,7 +1046,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="34"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -944,7 +1058,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="34"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -956,7 +1070,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="34"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -968,7 +1082,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="31"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -979,7 +1093,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="1"/>
-      <c r="I23" s="37"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -991,7 +1105,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="31"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1003,7 +1117,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="31"/>
+      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="13" x14ac:dyDescent="0.15">
